--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.96</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>19.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q3" t="n">
         <v>2.12</v>
@@ -940,16 +940,16 @@
         <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
         <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.3</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
         <v>1.93</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
         <v>1.93</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
         <v>2.02</v>
@@ -952,7 +952,7 @@
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -673,7 +673,7 @@
         <v>1.74</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I2" t="n">
         <v>27</v>
@@ -685,16 +685,16 @@
         <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
         <v>1.86</v>
@@ -703,76 +703,76 @@
         <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.75</v>
@@ -949,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G2" t="n">
         <v>1.74</v>
@@ -676,13 +676,13 @@
         <v>2.4</v>
       </c>
       <c r="I2" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -814,100 +814,100 @@
         <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,1327 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
         <v>1.6</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kairat Almaty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Slavia Prague</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.28</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
+      <c r="H10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>230</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>650</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Union St Gilloise</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.78</v>
+        <v>2.62</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P2" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V2" t="n">
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
         <v>1.92</v>
@@ -814,13 +814,13 @@
         <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -970,7 +970,7 @@
         <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -1078,16 +1078,16 @@
         <v>7.4</v>
       </c>
       <c r="H5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.55</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.56</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1102,25 +1102,25 @@
         <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
         <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
         <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1213,19 +1213,19 @@
         <v>1.26</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K6" t="n">
         <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1240,79 +1240,79 @@
         <v>3.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
         <v>1.94</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
         <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AB6" t="n">
         <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
         <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
         <v>2.24</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>3.75</v>
@@ -1378,7 +1378,7 @@
         <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
         <v>2.86</v>
@@ -1387,7 +1387,7 @@
         <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G8" t="n">
         <v>1.48</v>
       </c>
       <c r="H8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I8" t="n">
         <v>8.4</v>
@@ -1519,7 +1519,7 @@
         <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
         <v>1.87</v>
@@ -1618,10 +1618,10 @@
         <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1645,10 +1645,10 @@
         <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>2.46</v>
@@ -1696,19 +1696,19 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>60</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
         <v>3.15</v>
@@ -1786,7 +1786,7 @@
         <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
         <v>1.53</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
@@ -1912,7 +1912,7 @@
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
         <v>1.72</v>
@@ -1927,7 +1927,7 @@
         <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         <v>1.19</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
         <v>9.6</v>
@@ -2047,13 +2047,13 @@
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.27</v>
       </c>
       <c r="R12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="S12" t="n">
         <v>1.68</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2086,13 +2086,13 @@
         <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD12" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="AE12" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AF12" t="n">
         <v>12.5</v>
@@ -2101,7 +2101,7 @@
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2113,7 +2113,7 @@
         <v>13.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2155,13 +2155,13 @@
         <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.7</v>
@@ -2227,7 +2227,7 @@
         <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>25</v>
@@ -2251,7 +2251,7 @@
         <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
         <v>22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -718,7 +718,7 @@
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
@@ -841,7 +841,7 @@
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
         <v>1.96</v>
@@ -850,7 +850,7 @@
         <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
         <v>2.08</v>
@@ -970,7 +970,7 @@
         <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -1081,7 +1081,7 @@
         <v>1.54</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1108,19 +1108,19 @@
         <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1159,7 +1159,7 @@
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
         <v>210</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
         <v>12.5</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="n">
         <v>7.6</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1243,7 +1243,7 @@
         <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>2.02</v>
@@ -1255,10 +1255,10 @@
         <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X6" t="n">
         <v>42</v>
@@ -1276,13 +1276,13 @@
         <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
         <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1294,13 +1294,13 @@
         <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1348,40 +1348,40 @@
         <v>3.65</v>
       </c>
       <c r="H7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.24</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
         <v>1.64</v>
@@ -1390,25 +1390,25 @@
         <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>27</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.6</v>
@@ -1417,34 +1417,34 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
         <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
         <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
         <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1483,19 +1483,19 @@
         <v>1.48</v>
       </c>
       <c r="H8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I8" t="n">
         <v>8.4</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
         <v>5.2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1519,19 +1519,19 @@
         <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
         <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
         <v>25</v>
@@ -1540,49 +1540,49 @@
         <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
         <v>30</v>
       </c>
       <c r="AE8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF8" t="n">
         <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
         <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO8" t="n">
         <v>190</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>220</v>
       </c>
     </row>
     <row r="9">
@@ -1618,19 +1618,19 @@
         <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I9" t="n">
         <v>2.26</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
         <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1660,13 +1660,13 @@
         <v>2.7</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
         <v>15.5</v>
@@ -1681,40 +1681,40 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
         <v>55</v>
       </c>
       <c r="AK9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL9" t="n">
         <v>34</v>
       </c>
-      <c r="AL9" t="n">
-        <v>36</v>
-      </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
         <v>2.32</v>
@@ -1756,7 +1756,7 @@
         <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1765,7 +1765,7 @@
         <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1786,19 +1786,19 @@
         <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.53</v>
       </c>
       <c r="U10" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X10" t="n">
         <v>28</v>
@@ -1807,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.28</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.32</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
@@ -1894,13 +1894,13 @@
         <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1912,7 +1912,7 @@
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
         <v>1.72</v>
@@ -1921,7 +1921,7 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.62</v>
@@ -1930,19 +1930,19 @@
         <v>2.52</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
         <v>60</v>
@@ -1951,22 +1951,22 @@
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
         <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>38</v>
@@ -1975,10 +1975,10 @@
         <v>30</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
         <v>65</v>
@@ -1987,7 +1987,7 @@
         <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -2029,13 +2029,13 @@
         <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>10.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2059,49 +2059,49 @@
         <v>1.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="X12" t="n">
         <v>70</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Z12" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
         <v>25</v>
       </c>
       <c r="AD12" t="n">
-        <v>630</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF12" t="n">
         <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2164,13 +2164,13 @@
         <v>2.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2182,7 +2182,7 @@
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
         <v>1.68</v>
@@ -2200,22 +2200,22 @@
         <v>2.54</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
         <v>16.5</v>
@@ -2224,40 +2224,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -718,7 +718,7 @@
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -841,7 +841,7 @@
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
         <v>1.96</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
         <v>7.2</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>1.54</v>
       </c>
       <c r="I5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1105,10 +1105,10 @@
         <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1132,13 +1132,13 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1159,7 +1159,7 @@
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>210</v>
@@ -1213,16 +1213,16 @@
         <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1237,19 +1237,19 @@
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
         <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
         <v>2.08</v>
@@ -1264,22 +1264,22 @@
         <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="n">
         <v>170</v>
       </c>
       <c r="AA6" t="n">
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
         <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE6" t="n">
         <v>170</v>
@@ -1291,28 +1291,28 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
         <v>12.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1384,28 +1384,28 @@
         <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
         <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
         <v>16.5</v>
@@ -1432,19 +1432,19 @@
         <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H8" t="n">
         <v>7.6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.35</v>
@@ -1501,13 +1501,13 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
         <v>1.83</v>
@@ -1522,10 +1522,10 @@
         <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
         <v>3.05</v>
@@ -1534,25 +1534,25 @@
         <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AB8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>30</v>
       </c>
       <c r="AE8" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
         <v>8.4</v>
@@ -1564,7 +1564,7 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
         <v>12.5</v>
@@ -1576,13 +1576,13 @@
         <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
         <v>7.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
         <v>2.22</v>
@@ -1624,16 +1624,16 @@
         <v>2.26</v>
       </c>
       <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>5.7</v>
@@ -1642,16 +1642,16 @@
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
         <v>1.55</v>
@@ -1663,16 +1663,16 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X9" t="n">
         <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
         <v>29</v>
@@ -1705,16 +1705,16 @@
         <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -1750,10 +1750,10 @@
         <v>2.28</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1792,67 +1792,67 @@
         <v>1.53</v>
       </c>
       <c r="U10" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="V10" t="n">
         <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
         <v>20</v>
       </c>
       <c r="Z10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>18.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
         <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>55</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G11" t="n">
         <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
         <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
@@ -1915,19 +1915,19 @@
         <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V11" t="n">
         <v>1.41</v>
@@ -1948,10 +1948,10 @@
         <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>13.5</v>
@@ -1966,13 +1966,13 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
         <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -1981,10 +1981,10 @@
         <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>25</v>
@@ -2026,10 +2026,10 @@
         <v>16.5</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="J12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
         <v>10.5</v>
@@ -2047,10 +2047,10 @@
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R12" t="n">
         <v>2.38</v>
@@ -2059,10 +2059,10 @@
         <v>1.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
         <v>1.05</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>25</v>
@@ -2098,7 +2098,7 @@
         <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>34</v>
@@ -2113,13 +2113,13 @@
         <v>13.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G13" t="n">
         <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2170,55 +2170,55 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U13" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
@@ -2236,28 +2236,28 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>8.6</v>
       </c>
       <c r="L2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.01</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
       <c r="N2" t="n">
-        <v>2.62</v>
+        <v>2.94</v>
       </c>
       <c r="O2" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
         <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -841,7 +841,7 @@
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
         <v>1.96</v>
@@ -850,10 +850,10 @@
         <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H4" t="n">
         <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>870</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,16 +961,16 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.6</v>
+        <v>2.42</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -979,16 +979,16 @@
         <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.54</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.55</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1099,16 +1099,16 @@
         <v>4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -1117,10 +1117,10 @@
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1132,7 +1132,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
         <v>13.5</v>
@@ -1141,7 +1141,7 @@
         <v>25</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>9.6</v>
@@ -1150,19 +1150,19 @@
         <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AK5" t="n">
         <v>100</v>
@@ -1177,7 +1177,7 @@
         <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6">
@@ -1243,10 +1243,10 @@
         <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T6" t="n">
         <v>1.86</v>
@@ -1264,16 +1264,16 @@
         <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA6" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
         <v>17</v>
@@ -1282,7 +1282,7 @@
         <v>44</v>
       </c>
       <c r="AE6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1345,7 +1345,7 @@
         <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H7" t="n">
         <v>2.2</v>
@@ -1375,7 +1375,7 @@
         <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
@@ -1387,13 +1387,13 @@
         <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
         <v>1.81</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
         <v>17.5</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G8" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
         <v>5.1</v>
@@ -1495,13 +1495,13 @@
         <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
@@ -1510,13 +1510,13 @@
         <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
         <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
         <v>2.06</v>
@@ -1525,7 +1525,7 @@
         <v>1.88</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
         <v>3.05</v>
@@ -1537,10 +1537,10 @@
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB8" t="n">
         <v>8.199999999999999</v>
@@ -1570,10 +1570,10 @@
         <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
         <v>160</v>
@@ -1615,13 +1615,13 @@
         <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
         <v>2.22</v>
       </c>
       <c r="I9" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1633,10 +1633,10 @@
         <v>1.28</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
@@ -1663,13 +1663,13 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
         <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
         <v>17</v>
@@ -1678,7 +1678,7 @@
         <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
         <v>9.4</v>
@@ -1714,7 +1714,7 @@
         <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -1750,10 +1750,10 @@
         <v>2.28</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1771,25 +1771,25 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q10" t="n">
         <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U10" t="n">
         <v>2.78</v>
@@ -1798,7 +1798,7 @@
         <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
@@ -1810,7 +1810,7 @@
         <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
         <v>16</v>
@@ -1837,7 +1837,7 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK10" t="n">
         <v>20</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
         <v>2.28</v>
@@ -1894,7 +1894,7 @@
         <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
@@ -1915,19 +1915,19 @@
         <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
         <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
         <v>1.41</v>
@@ -1951,10 +1951,10 @@
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>34</v>
@@ -1981,7 +1981,7 @@
         <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
         <v>13</v>
@@ -2023,10 +2023,10 @@
         <v>1.19</v>
       </c>
       <c r="H12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
@@ -2056,10 +2056,10 @@
         <v>2.38</v>
       </c>
       <c r="S12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
         <v>2.16</v>
@@ -2074,10 +2074,10 @@
         <v>70</v>
       </c>
       <c r="Y12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2089,10 +2089,10 @@
         <v>25</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE12" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AF12" t="n">
         <v>12.5</v>
@@ -2101,7 +2101,7 @@
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2113,13 +2113,13 @@
         <v>13.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2179,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
         <v>2.32</v>
@@ -2191,10 +2191,10 @@
         <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
         <v>2.5</v>
@@ -2242,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
@@ -2257,7 +2257,7 @@
         <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -694,7 +694,7 @@
         <v>2.94</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
         <v>1.73</v>
@@ -808,16 +808,16 @@
         <v>2.04</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
@@ -841,7 +841,7 @@
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
         <v>1.96</v>
@@ -853,7 +853,7 @@
         <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -1081,7 +1081,7 @@
         <v>1.52</v>
       </c>
       <c r="I5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1096,16 +1096,16 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
         <v>1.46</v>
@@ -1114,13 +1114,13 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
         <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1159,13 +1159,13 @@
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
         <v>95</v>
@@ -1174,7 +1174,7 @@
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
         <v>7.4</v>
@@ -1213,16 +1213,16 @@
         <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K6" t="n">
         <v>7.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1231,22 +1231,22 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
         <v>1.86</v>
@@ -1264,7 +1264,7 @@
         <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="n">
         <v>160</v>
@@ -1279,10 +1279,10 @@
         <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1348,10 +1348,10 @@
         <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1366,7 +1366,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1375,7 +1375,7 @@
         <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
@@ -1384,10 +1384,10 @@
         <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V7" t="n">
         <v>1.81</v>
@@ -1396,7 +1396,7 @@
         <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H8" t="n">
         <v>7.8</v>
@@ -1489,7 +1489,7 @@
         <v>8.4</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
         <v>5.3</v>
@@ -1513,22 +1513,22 @@
         <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
         <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X8" t="n">
         <v>18</v>
@@ -1540,13 +1540,13 @@
         <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
         <v>30</v>
@@ -1567,7 +1567,7 @@
         <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1645,7 +1645,7 @@
         <v>2.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
         <v>1.64</v>
@@ -1678,7 +1678,7 @@
         <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
         <v>9.4</v>
@@ -1714,7 +1714,7 @@
         <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1783,7 +1783,7 @@
         <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S10" t="n">
         <v>2.38</v>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
         <v>13.5</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1921,7 +1921,7 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
         <v>1.63</v>
@@ -1930,10 +1930,10 @@
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
         <v>18.5</v>
@@ -1942,7 +1942,7 @@
         <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
         <v>60</v>
@@ -1951,16 +1951,16 @@
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1969,7 +1969,7 @@
         <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>28</v>
@@ -1987,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -2026,10 +2026,10 @@
         <v>17</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>10.5</v>
@@ -2047,7 +2047,7 @@
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.28</v>
@@ -2056,10 +2056,10 @@
         <v>2.38</v>
       </c>
       <c r="S12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
         <v>2.16</v>
@@ -2083,13 +2083,13 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
         <v>25</v>
       </c>
       <c r="AD12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>250</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
         <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2176,7 +2176,7 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
@@ -2188,10 +2188,10 @@
         <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
         <v>1.61</v>
@@ -2200,7 +2200,7 @@
         <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
         <v>1.45</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
         <v>6.6</v>
@@ -817,52 +817,52 @@
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -871,40 +871,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH3" t="n">
         <v>27</v>
       </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK3" t="n">
         <v>28</v>
       </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -961,19 +961,19 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.42</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
         <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S4" t="n">
         <v>3.75</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H5" t="n">
         <v>1.52</v>
@@ -1105,10 +1105,10 @@
         <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>25</v>
@@ -1231,7 +1231,7 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
@@ -1288,7 +1288,7 @@
         <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>28</v>
@@ -1369,7 +1369,7 @@
         <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
         <v>2.28</v>
@@ -1381,13 +1381,13 @@
         <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
         <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
         <v>1.81</v>
@@ -1486,10 +1486,10 @@
         <v>7.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
         <v>5.3</v>
@@ -1561,10 +1561,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
@@ -1582,7 +1582,7 @@
         <v>7.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1633,7 +1633,7 @@
         <v>1.28</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>5.8</v>
@@ -1642,7 +1642,7 @@
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
@@ -1696,7 +1696,7 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>27</v>
@@ -1714,7 +1714,7 @@
         <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
@@ -1885,7 +1885,7 @@
         <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H11" t="n">
         <v>3.45</v>
@@ -1924,7 +1924,7 @@
         <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
@@ -1933,7 +1933,7 @@
         <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
         <v>18.5</v>
@@ -1951,7 +1951,7 @@
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>14</v>
@@ -2023,7 +2023,7 @@
         <v>1.19</v>
       </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="I12" t="n">
         <v>20</v>
@@ -2047,7 +2047,7 @@
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.28</v>
@@ -2059,7 +2059,7 @@
         <v>1.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U12" t="n">
         <v>2.16</v>
@@ -2095,7 +2095,7 @@
         <v>250</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
@@ -2110,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="G2" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>870</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -808,16 +808,16 @@
         <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.46</v>
@@ -835,7 +835,7 @@
         <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
@@ -850,19 +850,19 @@
         <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
         <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>870</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>2.54</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
         <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1000,13 +1000,13 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,16 +1015,16 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>1.52</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1111,16 +1111,16 @@
         <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
         <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1174,7 +1174,7 @@
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
         <v>7.4</v>
@@ -1213,16 +1213,16 @@
         <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K6" t="n">
         <v>7.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1231,31 +1231,31 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
         <v>4.7</v>
@@ -1294,7 +1294,7 @@
         <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.5</v>
@@ -1309,7 +1309,7 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
         <v>140</v>
@@ -1348,7 +1348,7 @@
         <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
         <v>2.22</v>
@@ -1378,7 +1378,7 @@
         <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>2.86</v>
@@ -1540,7 +1540,7 @@
         <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AB8" t="n">
         <v>8.199999999999999</v>
@@ -1549,13 +1549,13 @@
         <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG8" t="n">
         <v>9.800000000000001</v>
@@ -1564,16 +1564,16 @@
         <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
         <v>160</v>
@@ -1633,7 +1633,7 @@
         <v>1.28</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>5.8</v>
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1792,7 +1792,7 @@
         <v>1.52</v>
       </c>
       <c r="U10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V10" t="n">
         <v>1.45</v>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
@@ -1852,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
         <v>3.45</v>
@@ -1921,10 +1921,10 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.18</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.19</v>
       </c>
       <c r="H12" t="n">
         <v>17.5</v>
@@ -2029,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
         <v>10.5</v>
@@ -2047,7 +2047,7 @@
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.28</v>
@@ -2068,7 +2068,7 @@
         <v>1.05</v>
       </c>
       <c r="W12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X12" t="n">
         <v>70</v>
@@ -2089,13 +2089,13 @@
         <v>25</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE12" t="n">
         <v>250</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
@@ -2110,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL12" t="n">
         <v>32</v>
@@ -2182,13 +2182,13 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
         <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
         <v>2.76</v>
@@ -2197,7 +2197,7 @@
         <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
         <v>1.71</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -808,16 +808,16 @@
         <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
         <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.46</v>
@@ -841,7 +841,7 @@
         <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
         <v>1.97</v>
@@ -850,19 +850,19 @@
         <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
         <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
         <v>1.92</v>
@@ -982,7 +982,7 @@
         <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
         <v>1.21</v>
@@ -1024,7 +1024,7 @@
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
         <v>1.52</v>
       </c>
       <c r="I5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1114,16 +1114,16 @@
         <v>2.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
         <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="W5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
         <v>17.5</v>
@@ -1168,7 +1168,7 @@
         <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
@@ -1213,7 +1213,7 @@
         <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
         <v>14</v>
@@ -1222,7 +1222,7 @@
         <v>7.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1234,7 +1234,7 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
         <v>3.4</v>
@@ -1243,10 +1243,10 @@
         <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T6" t="n">
         <v>1.86</v>
@@ -1267,7 +1267,7 @@
         <v>60</v>
       </c>
       <c r="Z6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
         <v>570</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
         <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1369,19 +1369,19 @@
         <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
         <v>1.64</v>
@@ -1390,7 +1390,7 @@
         <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>1.39</v>
@@ -1417,13 +1417,13 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>15.5</v>
@@ -1438,7 +1438,7 @@
         <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>70</v>
@@ -1447,7 +1447,7 @@
         <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H8" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>8.6</v>
@@ -1492,7 +1492,7 @@
         <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.36</v>
@@ -1513,7 +1513,7 @@
         <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
         <v>3.1</v>
@@ -1528,7 +1528,7 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X8" t="n">
         <v>18</v>
@@ -1567,7 +1567,7 @@
         <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1579,7 +1579,7 @@
         <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>180</v>
@@ -1672,7 +1672,7 @@
         <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA9" t="n">
         <v>29</v>
@@ -1681,13 +1681,13 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
         <v>27</v>
@@ -1696,7 +1696,7 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI9" t="n">
         <v>27</v>
@@ -1714,7 +1714,7 @@
         <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -1852,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H11" t="n">
         <v>3.45</v>
@@ -1897,7 +1897,7 @@
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1921,7 +1921,7 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
         <v>1.63</v>
@@ -1936,7 +1936,7 @@
         <v>1.81</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
         <v>16.5</v>
@@ -1951,7 +1951,7 @@
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>14</v>
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
         <v>15.5</v>
@@ -1975,7 +1975,7 @@
         <v>28</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
         <v>30</v>
@@ -1984,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2023,10 +2023,10 @@
         <v>1.18</v>
       </c>
       <c r="H12" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
@@ -2047,7 +2047,7 @@
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.28</v>
@@ -2059,7 +2059,7 @@
         <v>1.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
         <v>2.16</v>
@@ -2095,7 +2095,7 @@
         <v>250</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2182,13 +2182,13 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
         <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
         <v>2.76</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -682,31 +682,31 @@
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
         <v>1.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
         <v>2.06</v>
@@ -811,10 +811,10 @@
         <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
@@ -841,7 +841,7 @@
         <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.97</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.8</v>
@@ -985,7 +985,7 @@
         <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
         <v>2.08</v>
@@ -1006,7 +1006,7 @@
         <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1081,10 +1081,10 @@
         <v>1.52</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -1102,25 +1102,25 @@
         <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
         <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="W5" t="n">
         <v>1.14</v>
@@ -1129,7 +1129,7 @@
         <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>9</v>
@@ -1147,7 +1147,7 @@
         <v>9.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>65</v>
@@ -1213,16 +1213,16 @@
         <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1234,7 +1234,7 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
         <v>3.4</v>
@@ -1243,19 +1243,19 @@
         <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
         <v>4.7</v>
@@ -1267,7 +1267,7 @@
         <v>60</v>
       </c>
       <c r="Z6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="n">
         <v>570</v>
@@ -1294,7 +1294,7 @@
         <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.5</v>
@@ -1345,22 +1345,22 @@
         <v>3.45</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1372,7 +1372,7 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
         <v>1.75</v>
@@ -1381,7 +1381,7 @@
         <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
         <v>1.64</v>
@@ -1390,10 +1390,10 @@
         <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
         <v>18</v>
@@ -1411,13 +1411,13 @@
         <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
         <v>27</v>
@@ -1435,7 +1435,7 @@
         <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>42</v>
@@ -1495,7 +1495,7 @@
         <v>5.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1510,7 +1510,7 @@
         <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
         <v>1.45</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G9" t="n">
         <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1633,16 +1633,16 @@
         <v>1.28</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>5.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
@@ -1660,7 +1660,7 @@
         <v>2.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W9" t="n">
         <v>1.43</v>
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1795,16 +1795,16 @@
         <v>2.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
@@ -1888,13 +1888,13 @@
         <v>2.22</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.24</v>
@@ -1915,40 +1915,40 @@
         <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
         <v>1.81</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="n">
         <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>8.800000000000001</v>
@@ -1972,10 +1972,10 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>30</v>
@@ -2026,7 +2026,7 @@
         <v>18.5</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
@@ -2047,7 +2047,7 @@
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.28</v>
@@ -2062,7 +2062,7 @@
         <v>1.83</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
         <v>1.05</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>25</v>
@@ -2095,7 +2095,7 @@
         <v>250</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2170,7 +2170,7 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2182,7 +2182,7 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
         <v>1.71</v>
@@ -2221,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2254,7 +2254,7 @@
         <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>14.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -676,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>5.2</v>
@@ -697,7 +697,7 @@
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -712,10 +712,10 @@
         <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
         <v>2.46</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,25 +961,25 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
         <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
         <v>1.74</v>
@@ -988,7 +988,7 @@
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
         <v>12.5</v>
@@ -1000,7 +1000,7 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>8</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1075,22 +1075,22 @@
         <v>7.6</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
         <v>1.52</v>
       </c>
       <c r="I5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1108,19 +1108,19 @@
         <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="W5" t="n">
         <v>1.14</v>
@@ -1138,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
@@ -1213,16 +1213,16 @@
         <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1255,7 +1255,7 @@
         <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
         <v>4.7</v>
@@ -1267,7 +1267,7 @@
         <v>60</v>
       </c>
       <c r="Z6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
         <v>570</v>
@@ -1285,7 +1285,7 @@
         <v>170</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1294,16 +1294,16 @@
         <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>120</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.45</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.5</v>
-      </c>
       <c r="H7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I7" t="n">
         <v>2.28</v>
@@ -1366,13 +1366,13 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
         <v>1.75</v>
@@ -1387,10 +1387,10 @@
         <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
         <v>1.4</v>
@@ -1486,7 +1486,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
         <v>5.1</v>
@@ -1513,7 +1513,7 @@
         <v>1.81</v>
       </c>
       <c r="R8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
         <v>3.1</v>
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
         <v>8.199999999999999</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1636,46 +1636,46 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="U9" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
         <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="n">
         <v>19</v>
@@ -1687,37 +1687,37 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -1771,19 +1771,19 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
         <v>2.38</v>
@@ -1795,16 +1795,16 @@
         <v>2.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
         <v>1.75</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
@@ -1852,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1915,25 +1915,25 @@
         <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
@@ -1945,16 +1945,16 @@
         <v>27</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
         <v>36</v>
@@ -1975,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
         <v>30</v>
@@ -1987,7 +1987,7 @@
         <v>12.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +2026,7 @@
         <v>18.5</v>
       </c>
       <c r="I12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.08</v>
@@ -2050,19 +2050,19 @@
         <v>4.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="R12" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="S12" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
         <v>1.05</v>
@@ -2071,43 +2071,43 @@
         <v>6.4</v>
       </c>
       <c r="X12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AD12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>12.5</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2197,7 +2197,7 @@
         <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V13" t="n">
         <v>1.71</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>1.53</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
@@ -700,7 +700,7 @@
         <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
         <v>1.29</v>
@@ -715,10 +715,10 @@
         <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
@@ -811,10 +811,10 @@
         <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
@@ -823,7 +823,7 @@
         <v>1.46</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
         <v>2.96</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
         <v>1.89</v>
@@ -946,52 +946,52 @@
         <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
         <v>2.12</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1000,10 +1000,10 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1024,7 +1024,7 @@
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1075,22 +1075,22 @@
         <v>7.6</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.6</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1108,31 +1108,31 @@
         <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="W5" t="n">
         <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1168,16 +1168,16 @@
         <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.26</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.27</v>
-      </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K6" t="n">
         <v>7.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.97</v>
       </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
         <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>60</v>
+        <v>710</v>
       </c>
       <c r="Z6" t="n">
         <v>150</v>
       </c>
       <c r="AA6" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK6" t="n">
         <v>12</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1348,16 +1348,16 @@
         <v>3.45</v>
       </c>
       <c r="H7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I7" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1366,10 +1366,10 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>2.26</v>
@@ -1378,16 +1378,16 @@
         <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
         <v>1.78</v>
@@ -1402,7 +1402,7 @@
         <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA7" t="n">
         <v>28</v>
@@ -1417,7 +1417,7 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>27</v>
@@ -1438,10 +1438,10 @@
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
         <v>28</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.45</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.46</v>
-      </c>
       <c r="H8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1528,10 +1528,10 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>26</v>
@@ -1540,7 +1540,7 @@
         <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AB8" t="n">
         <v>8.199999999999999</v>
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF8" t="n">
         <v>8.199999999999999</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
         <v>2.34</v>
       </c>
       <c r="J9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K9" t="n">
         <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -1639,31 +1639,31 @@
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" t="n">
         <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.52</v>
       </c>
       <c r="U9" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V9" t="n">
         <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
         <v>24</v>
@@ -1690,7 +1690,7 @@
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -1708,16 +1708,16 @@
         <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
         <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -1759,10 +1759,10 @@
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K10" t="n">
         <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.28</v>
@@ -1777,7 +1777,7 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q10" t="n">
         <v>1.57</v>
@@ -1810,13 +1810,13 @@
         <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
         <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
         <v>13.5</v>
@@ -1852,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1912,7 +1912,7 @@
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
         <v>1.72</v>
@@ -1921,7 +1921,7 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.63</v>
@@ -1930,10 +1930,10 @@
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
@@ -1954,7 +1954,7 @@
         <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>36</v>
@@ -2023,10 +2023,10 @@
         <v>1.18</v>
       </c>
       <c r="H12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="I12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
@@ -2035,28 +2035,28 @@
         <v>10.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Q12" t="n">
         <v>1.26</v>
       </c>
       <c r="R12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="S12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="T12" t="n">
         <v>1.81</v>
@@ -2068,46 +2068,46 @@
         <v>1.05</v>
       </c>
       <c r="W12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>12.5</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,13 +2155,13 @@
         <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2182,28 +2182,28 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W13" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
@@ -2257,7 +2257,142 @@
         <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Jorge Wilstermann</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CD Gualberto Villarroel</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
         <v>9.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -706,19 +706,19 @@
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V2" t="n">
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
         <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -832,10 +832,10 @@
         <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
@@ -847,22 +847,22 @@
         <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
         <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>25</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.54</v>
@@ -961,13 +961,13 @@
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
         <v>2.46</v>
@@ -985,10 +985,10 @@
         <v>1.68</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>7.4</v>
@@ -1078,16 +1078,16 @@
         <v>7.8</v>
       </c>
       <c r="H5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.53</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.54</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1096,37 +1096,37 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="W5" t="n">
         <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>8.800000000000001</v>
@@ -1141,10 +1141,10 @@
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1162,13 +1162,13 @@
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AK5" t="n">
         <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
@@ -1177,7 +1177,7 @@
         <v>130</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G6" t="n">
         <v>1.26</v>
@@ -1222,10 +1222,10 @@
         <v>7.6</v>
       </c>
       <c r="K6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1243,28 +1243,28 @@
         <v>1.38</v>
       </c>
       <c r="R6" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S6" t="n">
         <v>2</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.97</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X6" t="n">
         <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="Z6" t="n">
         <v>150</v>
@@ -1273,7 +1273,7 @@
         <v>580</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>17.5</v>
@@ -1282,10 +1282,10 @@
         <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1297,7 +1297,7 @@
         <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
         <v>12</v>
@@ -1309,10 +1309,10 @@
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -1348,7 +1348,7 @@
         <v>3.45</v>
       </c>
       <c r="H7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I7" t="n">
         <v>2.32</v>
@@ -1357,7 +1357,7 @@
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1378,55 +1378,55 @@
         <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
         <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
         <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>30</v>
@@ -1444,10 +1444,10 @@
         <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>8.6</v>
       </c>
       <c r="J8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.36</v>
@@ -1510,16 +1510,16 @@
         <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
         <v>1.87</v>
@@ -1528,10 +1528,10 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
         <v>26</v>
@@ -1540,7 +1540,7 @@
         <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB8" t="n">
         <v>8.199999999999999</v>
@@ -1549,16 +1549,16 @@
         <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1579,10 +1579,10 @@
         <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -1618,16 +1618,16 @@
         <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -1642,7 +1642,7 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q9" t="n">
         <v>1.57</v>
@@ -1660,13 +1660,13 @@
         <v>2.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>16</v>
@@ -1675,13 +1675,13 @@
         <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
@@ -1717,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.32</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
         <v>3.95</v>
@@ -1768,7 +1768,7 @@
         <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
         <v>5.9</v>
@@ -1777,7 +1777,7 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q10" t="n">
         <v>1.57</v>
@@ -1792,19 +1792,19 @@
         <v>1.52</v>
       </c>
       <c r="U10" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
@@ -1852,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.2</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.22</v>
-      </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.24</v>
@@ -1915,7 +1915,7 @@
         <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
@@ -1930,10 +1930,10 @@
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
@@ -1954,7 +1954,7 @@
         <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
         <v>36</v>
@@ -2026,7 +2026,7 @@
         <v>19.5</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
@@ -2071,7 +2071,7 @@
         <v>6.6</v>
       </c>
       <c r="X12" t="n">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
         <v>25</v>
@@ -2095,10 +2095,10 @@
         <v>280</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>36</v>
@@ -2113,7 +2113,7 @@
         <v>12.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>2.42</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2182,7 +2182,7 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
         <v>1.72</v>
@@ -2194,16 +2194,16 @@
         <v>2.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
@@ -2239,7 +2239,7 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>50</v>
@@ -2257,7 +2257,7 @@
         <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>2.86</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.94</v>
+        <v>2.28</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
         <v>36</v>
       </c>
-      <c r="AF14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>32</v>
-      </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
@@ -706,19 +706,19 @@
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
         <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
         <v>4.7</v>
@@ -814,7 +814,7 @@
         <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -850,10 +850,10 @@
         <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
         <v>13.5</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>5.5</v>
@@ -949,10 +949,10 @@
         <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.54</v>
@@ -964,19 +964,19 @@
         <v>2.66</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P4" t="n">
         <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R4" t="n">
         <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
         <v>2.2</v>
@@ -985,10 +985,10 @@
         <v>1.68</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1114,7 +1114,7 @@
         <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
         <v>1.99</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.25</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
         <v>14.5</v>
@@ -1222,7 +1222,7 @@
         <v>7.6</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1231,49 +1231,49 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O6" t="n">
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
         <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="n">
         <v>150</v>
       </c>
       <c r="AA6" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
         <v>17.5</v>
@@ -1282,10 +1282,10 @@
         <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1309,10 +1309,10 @@
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.45</v>
       </c>
       <c r="H7" t="n">
         <v>2.3</v>
@@ -1372,7 +1372,7 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
         <v>1.75</v>
@@ -1384,13 +1384,13 @@
         <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
         <v>2.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>1.41</v>
@@ -1399,7 +1399,7 @@
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
         <v>16</v>
@@ -1420,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1447,7 +1447,7 @@
         <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>5.2</v>
@@ -1510,13 +1510,13 @@
         <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
         <v>2.06</v>
@@ -1543,7 +1543,7 @@
         <v>300</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
         <v>11.5</v>
@@ -1558,7 +1558,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1582,7 +1582,7 @@
         <v>7.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.15</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -1642,7 +1642,7 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" t="n">
         <v>1.57</v>
@@ -1657,10 +1657,10 @@
         <v>1.52</v>
       </c>
       <c r="U9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="V9" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="W9" t="n">
         <v>1.46</v>
@@ -1690,7 +1690,7 @@
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
@@ -1780,7 +1780,7 @@
         <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
         <v>1.68</v>
@@ -1789,10 +1789,10 @@
         <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U10" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="V10" t="n">
         <v>1.44</v>
@@ -1801,7 +1801,7 @@
         <v>1.76</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
         <v>20</v>
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
         <v>13.5</v>
@@ -1828,7 +1828,7 @@
         <v>18.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>14</v>
@@ -1852,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>3.65</v>
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.24</v>
@@ -1915,7 +1915,7 @@
         <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
@@ -1924,7 +1924,7 @@
         <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
@@ -1933,7 +1933,7 @@
         <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
@@ -1975,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL11" t="n">
         <v>30</v>
@@ -2023,16 +2023,16 @@
         <v>1.18</v>
       </c>
       <c r="H12" t="n">
+        <v>19</v>
+      </c>
+      <c r="I12" t="n">
         <v>19.5</v>
       </c>
-      <c r="I12" t="n">
-        <v>21</v>
-      </c>
       <c r="J12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K12" t="n">
         <v>10</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.14</v>
@@ -2053,31 +2053,31 @@
         <v>1.26</v>
       </c>
       <c r="R12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="S12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
         <v>1.05</v>
       </c>
       <c r="W12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X12" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2089,37 +2089,37 @@
         <v>25</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE12" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK12" t="n">
         <v>12.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AO12" t="n">
         <v>200</v>
@@ -2161,7 +2161,7 @@
         <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2170,7 +2170,7 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2179,28 +2179,28 @@
         <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W13" t="n">
         <v>1.46</v>
@@ -2209,7 +2209,7 @@
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
@@ -2218,7 +2218,7 @@
         <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
@@ -2227,10 +2227,10 @@
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2251,10 +2251,10 @@
         <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>14.5</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="H14" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="I14" t="n">
         <v>3.35</v>
@@ -2305,73 +2305,73 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>2.86</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>1.92</v>
+        <v>2.26</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2380,7 +2380,7 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,10 +2389,10 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
         <v>6.8</v>
@@ -682,43 +682,43 @@
         <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -811,13 +811,13 @@
         <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
@@ -826,13 +826,13 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O3" t="n">
         <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -847,7 +847,7 @@
         <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
@@ -883,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -898,7 +898,7 @@
         <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H4" t="n">
         <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
@@ -955,16 +955,16 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
         <v>1.56</v>
@@ -988,7 +988,7 @@
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G5" t="n">
         <v>7.6</v>
       </c>
-      <c r="G5" t="n">
-        <v>7.8</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1102,28 +1102,28 @@
         <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
         <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
@@ -1132,10 +1132,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1162,13 +1162,13 @@
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AK5" t="n">
         <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
@@ -1213,25 +1213,25 @@
         <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.12</v>
@@ -1240,13 +1240,13 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S6" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="T6" t="n">
         <v>1.89</v>
@@ -1258,40 +1258,40 @@
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Y6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA6" t="n">
         <v>570</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE6" t="n">
         <v>190</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
@@ -1309,16 +1309,16 @@
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>1.09</v>
       </c>
       <c r="I7" t="n">
-        <v>2.32</v>
+        <v>1.23</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>8.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>48</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>1.02</v>
       </c>
       <c r="O7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.25</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.28</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>1.96</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>8.199999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>1.24</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.21</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>1.21</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,85 +1603,85 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
       <c r="T9" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="V9" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>16</v>
       </c>
-      <c r="Z9" t="n">
-        <v>18</v>
-      </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
@@ -1690,34 +1690,34 @@
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO9" t="n">
         <v>14</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>1.46</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>8.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.28</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>2.84</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>3.1</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.53</v>
       </c>
-      <c r="S11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.71</v>
       </c>
       <c r="W11" t="n">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI11" t="n">
         <v>27</v>
       </c>
-      <c r="AA11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.17</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.18</v>
       </c>
-      <c r="H12" t="n">
-        <v>19</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="P12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X12" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y12" t="n">
         <v>19.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X12" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>970</v>
-      </c>
       <c r="Z12" t="n">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
-        <v>25</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
         <v>14</v>
       </c>
-      <c r="AH12" t="n">
-        <v>34</v>
-      </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.46</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>200</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2176,222 +2176,492 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="T13" t="n">
         <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.86</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Union St Gilloise</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2025-12-09</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Jorge Wilstermann</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>CD Gualberto Villarroel</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.54</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="T16" t="n">
         <v>1.56</v>
       </c>
-      <c r="U14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="U16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X16" t="n">
         <v>23</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y16" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z16" t="n">
         <v>28</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA16" t="n">
         <v>60</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB16" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC16" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD16" t="n">
         <v>14</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE16" t="n">
         <v>34</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF16" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH16" t="n">
         <v>17</v>
       </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO16" t="n">
         <v>27</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
         <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -838,7 +838,7 @@
         <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S3" t="n">
         <v>4.1</v>
@@ -856,7 +856,7 @@
         <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>17.5</v>
@@ -868,16 +868,16 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
         <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
@@ -886,19 +886,19 @@
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.32</v>
+        <v>1.37</v>
       </c>
       <c r="O4" t="n">
         <v>1.46</v>
       </c>
       <c r="P4" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
@@ -1015,16 +1015,16 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1036,10 +1036,10 @@
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1090,7 +1090,7 @@
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1105,7 +1105,7 @@
         <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
         <v>1.47</v>
@@ -1114,13 +1114,13 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
         <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1138,10 +1138,10 @@
         <v>13.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>9.800000000000001</v>
@@ -1156,7 +1156,7 @@
         <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1174,10 +1174,10 @@
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.24</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.25</v>
       </c>
       <c r="H6" t="n">
         <v>14.5</v>
@@ -1225,19 +1225,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q6" t="n">
         <v>1.38</v>
@@ -1252,19 +1252,19 @@
         <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X6" t="n">
         <v>48</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="n">
         <v>160</v>
@@ -1273,28 +1273,28 @@
         <v>570</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1306,13 +1306,13 @@
         <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="I7" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="J7" t="n">
         <v>8.6</v>
       </c>
       <c r="K7" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,58 +1366,58 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.02</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1426,7 +1426,7 @@
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>1.48</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,13 +1501,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
         <v>1.21</v>
@@ -1519,16 +1519,16 @@
         <v>1.21</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1624,19 +1624,19 @@
         <v>2.34</v>
       </c>
       <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.65</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -1645,16 +1645,16 @@
         <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R9" t="n">
         <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>2.52</v>
@@ -1678,7 +1678,7 @@
         <v>30</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.4</v>
@@ -1705,7 +1705,7 @@
         <v>60</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
         <v>38</v>
@@ -1714,10 +1714,10 @@
         <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I10" t="n">
         <v>8.6</v>
@@ -1774,25 +1774,25 @@
         <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
         <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
         <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
         <v>1.13</v>
@@ -1801,7 +1801,7 @@
         <v>3.1</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>26</v>
@@ -1813,7 +1813,7 @@
         <v>300</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
@@ -1825,7 +1825,7 @@
         <v>130</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG10" t="n">
         <v>9.800000000000001</v>
@@ -1837,7 +1837,7 @@
         <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -1849,7 +1849,7 @@
         <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO10" t="n">
         <v>150</v>
@@ -1891,16 +1891,16 @@
         <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1912,16 +1912,16 @@
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
         <v>1.53</v>
@@ -1933,7 +1933,7 @@
         <v>1.71</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -1945,7 +1945,7 @@
         <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
         <v>19</v>
@@ -1954,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
@@ -1966,28 +1966,28 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
@@ -2029,10 +2029,10 @@
         <v>3.25</v>
       </c>
       <c r="J12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.95</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2041,40 +2041,40 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R12" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U12" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="V12" t="n">
         <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X12" t="n">
         <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
         <v>26</v>
@@ -2083,7 +2083,7 @@
         <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
         <v>9.4</v>
@@ -2098,16 +2098,16 @@
         <v>18.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI12" t="n">
         <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
         <v>20</v>
@@ -2116,7 +2116,7 @@
         <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN12" t="n">
         <v>11</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2176,25 +2176,25 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
         <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
         <v>2.52</v>
@@ -2203,7 +2203,7 @@
         <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
@@ -2221,7 +2221,7 @@
         <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
         <v>14.5</v>
@@ -2236,7 +2236,7 @@
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI13" t="n">
         <v>40</v>
@@ -2254,7 +2254,7 @@
         <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G14" t="n">
         <v>1.2</v>
@@ -2296,13 +2296,13 @@
         <v>17.5</v>
       </c>
       <c r="I14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K14" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L14" t="n">
         <v>1.14</v>
@@ -2317,22 +2317,22 @@
         <v>1.08</v>
       </c>
       <c r="P14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.26</v>
       </c>
       <c r="R14" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="S14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V14" t="n">
         <v>1.05</v>
@@ -2341,10 +2341,10 @@
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Z14" t="n">
         <v>250</v>
@@ -2359,37 +2359,37 @@
         <v>24</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
         <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
         <v>12.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="AO14" t="n">
         <v>200</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.44</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.46</v>
-      </c>
       <c r="J15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2449,37 +2449,37 @@
         <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
         <v>17</v>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>32</v>
@@ -2521,7 +2521,7 @@
         <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
         <v>23</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
         <v>3.35</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R16" t="n">
         <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>14</v>
-      </c>
       <c r="AE16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.73</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -808,10 +808,10 @@
         <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -847,10 +847,10 @@
         <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>1.98</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
         <v>9.4</v>
@@ -940,7 +940,7 @@
         <v>1.65</v>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
@@ -949,10 +949,10 @@
         <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,16 +961,16 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>1.37</v>
+        <v>2.26</v>
       </c>
       <c r="O4" t="n">
         <v>1.46</v>
       </c>
       <c r="P4" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R4" t="n">
         <v>1.17</v>
@@ -979,10 +979,10 @@
         <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.05</v>
+        <v>1.59</v>
       </c>
       <c r="V4" t="n">
         <v>1.15</v>
@@ -1102,19 +1102,19 @@
         <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
         <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
         <v>1.99</v>
@@ -1162,7 +1162,7 @@
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AK5" t="n">
         <v>110</v>
@@ -1171,10 +1171,10 @@
         <v>95</v>
       </c>
       <c r="AM5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN5" t="n">
         <v>130</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>160</v>
       </c>
       <c r="AO5" t="n">
         <v>7.2</v>
@@ -1213,49 +1213,49 @@
         <v>1.24</v>
       </c>
       <c r="H6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="n">
         <v>2.02</v>
       </c>
       <c r="S6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T6" t="n">
         <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W6" t="n">
         <v>5.2</v>
@@ -1270,13 +1270,13 @@
         <v>160</v>
       </c>
       <c r="AA6" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>55</v>
@@ -1288,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO6" t="n">
         <v>220</v>
@@ -1360,7 +1360,7 @@
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1375,19 +1375,19 @@
         <v>2.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
         <v>2.46</v>
       </c>
       <c r="U7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V7" t="n">
         <v>6.4</v>
@@ -1429,7 +1429,7 @@
         <v>70</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1513,7 +1513,7 @@
         <v>1.21</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
         <v>1.21</v>
@@ -1618,7 +1618,7 @@
         <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
         <v>2.34</v>
@@ -1666,7 +1666,7 @@
         <v>1.41</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
         <v>12.5</v>
@@ -1678,7 +1678,7 @@
         <v>30</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
         <v>8.4</v>
@@ -1687,13 +1687,13 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>14.5</v>
@@ -1714,7 +1714,7 @@
         <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
         <v>13.5</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -1780,7 +1780,7 @@
         <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
@@ -1792,7 +1792,7 @@
         <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
         <v>1.13</v>
@@ -1888,10 +1888,10 @@
         <v>3.15</v>
       </c>
       <c r="H11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.38</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.42</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
@@ -1912,13 +1912,13 @@
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
         <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>2.4</v>
@@ -1930,7 +1930,7 @@
         <v>2.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W11" t="n">
         <v>1.46</v>
@@ -1945,7 +1945,7 @@
         <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
         <v>19</v>
@@ -1969,25 +1969,25 @@
         <v>13.5</v>
       </c>
       <c r="AI11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK11" t="n">
         <v>27</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM11" t="n">
         <v>48</v>
       </c>
-      <c r="AK11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>50</v>
-      </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.32</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.34</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
@@ -2032,7 +2032,7 @@
         <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2047,16 +2047,16 @@
         <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q12" t="n">
         <v>1.55</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T12" t="n">
         <v>1.51</v>
@@ -2068,16 +2068,16 @@
         <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
         <v>55</v>
@@ -2110,13 +2110,13 @@
         <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL12" t="n">
         <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN12" t="n">
         <v>11</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
         <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2179,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
         <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>1.54</v>
@@ -2197,7 +2197,7 @@
         <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
         <v>1.37</v>
@@ -2209,10 +2209,10 @@
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
         <v>65</v>
@@ -2242,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2254,7 +2254,7 @@
         <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G14" t="n">
         <v>1.2</v>
@@ -2296,10 +2296,10 @@
         <v>17.5</v>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="K14" t="n">
         <v>9.800000000000001</v>
@@ -2323,7 +2323,7 @@
         <v>1.26</v>
       </c>
       <c r="R14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="S14" t="n">
         <v>1.67</v>
@@ -2377,7 +2377,7 @@
         <v>520</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK14" t="n">
         <v>12.5</v>
@@ -2389,7 +2389,7 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="AO14" t="n">
         <v>200</v>
@@ -2452,19 +2452,19 @@
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
         <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U15" t="n">
         <v>2.5</v>
@@ -2479,7 +2479,7 @@
         <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
         <v>17</v>
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
         <v>27</v>
@@ -2623,10 +2623,10 @@
         <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
         <v>14.5</v>
@@ -2635,16 +2635,16 @@
         <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
         <v>36</v>
@@ -2659,7 +2659,7 @@
         <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H2" t="n">
         <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
         <v>1.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
         <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
         <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -871,19 +871,19 @@
         <v>7.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
@@ -892,13 +892,13 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK3" t="n">
         <v>24</v>
       </c>
-      <c r="AK3" t="n">
-        <v>25</v>
-      </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="G4" t="n">
         <v>1.84</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="O4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1000,10 +1000,10 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
@@ -1015,25 +1015,25 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
         <v>7.6</v>
@@ -1081,7 +1081,7 @@
         <v>1.53</v>
       </c>
       <c r="I5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1090,16 +1090,16 @@
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
         <v>2.22</v>
@@ -1108,19 +1108,19 @@
         <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
         <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1141,7 +1141,7 @@
         <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>9.800000000000001</v>
@@ -1159,16 +1159,16 @@
         <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
         <v>220</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
         <v>120</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
         <v>48</v>
@@ -1267,52 +1267,52 @@
         <v>60</v>
       </c>
       <c r="Z6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
         <v>12</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J7" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
         <v>2.46</v>
@@ -1390,7 +1390,7 @@
         <v>1.56</v>
       </c>
       <c r="V7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="W7" t="n">
         <v>1.02</v>
@@ -1399,13 +1399,13 @@
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>9.4</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
@@ -1426,10 +1426,10 @@
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
         <v>34</v>
@@ -1495,40 +1495,40 @@
         <v>32</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>1.26</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.21</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>1.21</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,22 +1615,22 @@
         <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H9" t="n">
         <v>2.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1645,13 +1645,13 @@
         <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
         <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
         <v>1.62</v>
@@ -1660,13 +1660,13 @@
         <v>2.52</v>
       </c>
       <c r="V9" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
         <v>12.5</v>
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
@@ -1690,7 +1690,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -1714,7 +1714,7 @@
         <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>13.5</v>
@@ -1762,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1780,16 +1780,16 @@
         <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
         <v>1.89</v>
@@ -1801,7 +1801,7 @@
         <v>3.1</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
         <v>26</v>
@@ -1810,13 +1810,13 @@
         <v>75</v>
       </c>
       <c r="AA10" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AB10" t="n">
         <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>32</v>
@@ -1831,7 +1831,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>120</v>
@@ -1846,7 +1846,7 @@
         <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
         <v>6.8</v>
@@ -1894,7 +1894,7 @@
         <v>2.38</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
@@ -1912,7 +1912,7 @@
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q11" t="n">
         <v>1.57</v>
@@ -1921,16 +1921,16 @@
         <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U11" t="n">
         <v>2.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
         <v>1.46</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.32</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
         <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2050,13 +2050,13 @@
         <v>2.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
         <v>1.51</v>
@@ -2065,16 +2065,16 @@
         <v>2.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W12" t="n">
         <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
         <v>27</v>
@@ -2083,7 +2083,7 @@
         <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
         <v>9.4</v>
@@ -2107,13 +2107,13 @@
         <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
         <v>19.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
         <v>48</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2179,43 +2179,43 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -2224,10 +2224,10 @@
         <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
         <v>15</v>
@@ -2236,13 +2236,13 @@
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2257,7 +2257,7 @@
         <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2293,46 +2293,46 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="I14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
         <v>1.08</v>
       </c>
       <c r="P14" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R14" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V14" t="n">
         <v>1.05</v>
@@ -2344,7 +2344,7 @@
         <v>75</v>
       </c>
       <c r="Y14" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z14" t="n">
         <v>250</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
         <v>65</v>
@@ -2365,16 +2365,16 @@
         <v>250</v>
       </c>
       <c r="AF14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>13</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
         <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="n">
         <v>11.5</v>
@@ -2386,10 +2386,10 @@
         <v>27</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="AO14" t="n">
         <v>200</v>
@@ -2431,7 +2431,7 @@
         <v>2.42</v>
       </c>
       <c r="I15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2440,7 +2440,7 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2449,28 +2449,28 @@
         <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
         <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W15" t="n">
         <v>1.46</v>
@@ -2482,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA15" t="n">
         <v>32</v>
@@ -2494,7 +2494,7 @@
         <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
         <v>32</v>
@@ -2521,7 +2521,7 @@
         <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
         <v>23</v>
@@ -2557,85 +2557,85 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="V16" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -2650,19 +2650,19 @@
         <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
         <v>1.33</v>
@@ -709,7 +709,7 @@
         <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
         <v>1.81</v>
@@ -718,7 +718,7 @@
         <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
         <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
@@ -826,31 +826,31 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
         <v>1.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
         <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
         <v>2</v>
@@ -874,7 +874,7 @@
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -952,7 +952,7 @@
         <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
         <v>1.56</v>
@@ -964,7 +964,7 @@
         <v>2.78</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P4" t="n">
         <v>1.58</v>
@@ -973,22 +973,22 @@
         <v>2.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
         <v>1.69</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
@@ -1000,10 +1000,10 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
@@ -1024,7 +1024,7 @@
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G5" t="n">
         <v>7.6</v>
@@ -1081,7 +1081,7 @@
         <v>1.53</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1096,7 +1096,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.26</v>
@@ -1111,16 +1111,16 @@
         <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1153,7 +1153,7 @@
         <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
@@ -1168,7 +1168,7 @@
         <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
         <v>120</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="G6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="K6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1231,70 +1231,70 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O6" t="n">
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X6" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
         <v>60</v>
       </c>
       <c r="Z6" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
         <v>640</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AE6" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.5</v>
@@ -1303,16 +1303,16 @@
         <v>12</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO6" t="n">
         <v>120</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="K7" t="n">
         <v>10.5</v>
@@ -1366,58 +1366,58 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V7" t="n">
         <v>6.2</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6.6</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1426,10 +1426,10 @@
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8">
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>5.2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.48</v>
+        <v>2.52</v>
       </c>
       <c r="K8" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
         <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G9" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="I9" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1630,55 +1630,55 @@
         <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="V9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W9" t="n">
         <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.199999999999999</v>
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>25</v>
@@ -1696,28 +1696,28 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
         <v>60</v>
       </c>
       <c r="AK9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="n">
         <v>32</v>
       </c>
-      <c r="AL9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>26</v>
-      </c>
       <c r="AO9" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1771,28 +1771,28 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
         <v>1.13</v>
@@ -1801,55 +1801,55 @@
         <v>3.1</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="n">
         <v>280</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF10" t="n">
         <v>8.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO10" t="n">
         <v>150</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.36</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.38</v>
       </c>
       <c r="J11" t="n">
         <v>3.85</v>
@@ -1912,22 +1912,22 @@
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
         <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
         <v>1.52</v>
       </c>
       <c r="U11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V11" t="n">
         <v>1.73</v>
@@ -1957,7 +1957,7 @@
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
         <v>25</v>
@@ -1975,10 +1975,10 @@
         <v>46</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
         <v>48</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S12" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U12" t="n">
         <v>2.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="X12" t="n">
         <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
         <v>9.4</v>
       </c>
       <c r="AD12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
         <v>14</v>
       </c>
-      <c r="AE12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK12" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM12" t="n">
         <v>48</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.85</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2182,55 +2182,55 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
@@ -2239,13 +2239,13 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2254,10 +2254,10 @@
         <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2293,16 +2293,16 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="I14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="J14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L14" t="n">
         <v>1.15</v>
@@ -2311,40 +2311,40 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="S14" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="Y14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
         <v>250</v>
@@ -2353,43 +2353,43 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AD14" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AE14" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="AF14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11.5</v>
       </c>
       <c r="AK14" t="n">
         <v>12.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AO14" t="n">
         <v>200</v>
@@ -2425,13 +2425,13 @@
         <v>3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.42</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.46</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2440,46 +2440,46 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W15" t="n">
         <v>1.46</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
         <v>16.5</v>
@@ -2488,10 +2488,10 @@
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
@@ -2500,7 +2500,7 @@
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -2524,10 +2524,10 @@
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G16" t="n">
         <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>3.95</v>
@@ -2581,28 +2581,28 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.58</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.56</v>
       </c>
       <c r="V16" t="n">
         <v>1.45</v>
@@ -2611,28 +2611,28 @@
         <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
         <v>19</v>
@@ -2659,10 +2659,10 @@
         <v>60</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.81</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,19 +745,19 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
         <v>1.49</v>
@@ -826,10 +826,10 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
         <v>1.74</v>
@@ -838,73 +838,73 @@
         <v>2.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
         <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="X3" t="n">
         <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>5.9</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -964,16 +964,16 @@
         <v>2.78</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
         <v>1.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
         <v>2.18</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,37 +1003,37 @@
         <v>250</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="n">
         <v>160</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
         <v>85</v>
       </c>
       <c r="AL4" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G5" t="n">
         <v>7.4</v>
       </c>
-      <c r="G5" t="n">
-        <v>7.6</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.37</v>
@@ -1105,22 +1105,22 @@
         <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1159,7 +1159,7 @@
         <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>220</v>
@@ -1168,7 +1168,7 @@
         <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
         <v>120</v>
@@ -1177,7 +1177,7 @@
         <v>130</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I6" t="n">
         <v>12</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.5</v>
       </c>
       <c r="J6" t="n">
         <v>7.2</v>
@@ -1225,73 +1225,73 @@
         <v>7.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="n">
-        <v>640</v>
+        <v>430</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
         <v>110</v>
@@ -1303,13 +1303,13 @@
         <v>12</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AO6" t="n">
         <v>120</v>
@@ -1342,82 +1342,82 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J7" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="V7" t="n">
         <v>6.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AD7" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1426,10 +1426,10 @@
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="8">
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
         <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.52</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
         <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
         <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
         <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
         <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I9" t="n">
         <v>2.28</v>
@@ -1636,19 +1636,19 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V9" t="n">
         <v>1.78</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -1684,7 +1684,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -1693,28 +1693,28 @@
         <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
         <v>14.5</v>
@@ -1753,16 +1753,16 @@
         <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1771,28 +1771,28 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
         <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
         <v>1.13</v>
@@ -1801,7 +1801,7 @@
         <v>3.1</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
         <v>27</v>
@@ -1825,7 +1825,7 @@
         <v>120</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1846,13 +1846,13 @@
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
         <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J11" t="n">
         <v>3.85</v>
@@ -1915,10 +1915,10 @@
         <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S11" t="n">
         <v>2.4</v>
@@ -1927,13 +1927,13 @@
         <v>1.52</v>
       </c>
       <c r="U11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -1948,7 +1948,7 @@
         <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
@@ -1957,7 +1957,7 @@
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>25</v>
@@ -1975,16 +1975,16 @@
         <v>46</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
         <v>48</v>
       </c>
       <c r="AN11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO11" t="n">
         <v>11.5</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.12</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.14</v>
       </c>
       <c r="H12" t="n">
         <v>3.55</v>
@@ -2029,10 +2029,10 @@
         <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2047,31 +2047,31 @@
         <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S12" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U12" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="V12" t="n">
         <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>22</v>
@@ -2080,13 +2080,13 @@
         <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>15.5</v>
@@ -2095,13 +2095,13 @@
         <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI12" t="n">
         <v>34</v>
@@ -2116,10 +2116,10 @@
         <v>24</v>
       </c>
       <c r="AM12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO12" t="n">
         <v>20</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
@@ -2182,10 +2182,10 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
         <v>1.54</v>
@@ -2197,22 +2197,22 @@
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
         <v>75</v>
@@ -2221,13 +2221,13 @@
         <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
         <v>14</v>
@@ -2239,16 +2239,16 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>65</v>
@@ -2257,7 +2257,7 @@
         <v>10.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2296,7 +2296,7 @@
         <v>16.5</v>
       </c>
       <c r="I14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
         <v>9.6</v>
@@ -2317,22 +2317,22 @@
         <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R14" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
         <v>1.06</v>
@@ -2341,10 +2341,10 @@
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Z14" t="n">
         <v>250</v>
@@ -2353,28 +2353,28 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD14" t="n">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="AE14" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="AF14" t="n">
         <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
         <v>12.5</v>
@@ -2386,13 +2386,13 @@
         <v>25</v>
       </c>
       <c r="AM14" t="n">
-        <v>430</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AO14" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>2.4</v>
@@ -2440,55 +2440,55 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
         <v>1.7</v>
       </c>
       <c r="W15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
         <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA15" t="n">
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.199999999999999</v>
@@ -2500,7 +2500,7 @@
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -2518,16 +2518,16 @@
         <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2557,85 +2557,85 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G16" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.38</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.5</v>
       </c>
       <c r="T16" t="n">
         <v>1.58</v>
       </c>
       <c r="U16" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="V16" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AF16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -2644,25 +2644,25 @@
         <v>14.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
         <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
         <v>13.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
         <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>60</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G3" t="n">
         <v>2.36</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.49</v>
@@ -826,76 +826,76 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
         <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W3" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="X3" t="n">
         <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
         <v>120</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H4" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.55</v>
@@ -964,7 +964,7 @@
         <v>2.78</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P4" t="n">
         <v>1.58</v>
@@ -973,25 +973,25 @@
         <v>2.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
         <v>32</v>
@@ -1000,10 +1000,10 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AC4" t="n">
         <v>8.4</v>
@@ -1015,19 +1015,19 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>85</v>
@@ -1039,7 +1039,7 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1078,13 +1078,13 @@
         <v>7.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I5" t="n">
         <v>1.55</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -1105,10 +1105,10 @@
         <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
         <v>3.05</v>
@@ -1126,7 +1126,7 @@
         <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>8.800000000000001</v>
@@ -1150,19 +1150,19 @@
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
         <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="AK5" t="n">
         <v>100</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="H6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J6" t="n">
         <v>7.2</v>
@@ -1225,76 +1225,76 @@
         <v>7.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="S6" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="X6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z6" t="n">
         <v>120</v>
       </c>
       <c r="AA6" t="n">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.5</v>
@@ -1303,16 +1303,16 @@
         <v>12</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -1342,82 +1342,82 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G7" t="n">
         <v>20</v>
       </c>
-      <c r="G7" t="n">
-        <v>25</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="I7" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.87</v>
       </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.69</v>
-      </c>
       <c r="V7" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.05</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.92</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.04</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
         <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I9" t="n">
         <v>2.28</v>
@@ -1630,34 +1630,34 @@
         <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V9" t="n">
         <v>1.78</v>
@@ -1666,10 +1666,10 @@
         <v>1.39</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
@@ -1678,7 +1678,7 @@
         <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>8.199999999999999</v>
@@ -1696,7 +1696,7 @@
         <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>30</v>
@@ -1711,13 +1711,13 @@
         <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1747,70 +1747,70 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G10" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="H10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I10" t="n">
         <v>8</v>
       </c>
-      <c r="I10" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
         <v>5.1</v>
       </c>
-      <c r="K10" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R10" t="n">
         <v>1.49</v>
       </c>
       <c r="S10" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z10" t="n">
         <v>70</v>
       </c>
       <c r="AA10" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB10" t="n">
         <v>8.800000000000001</v>
@@ -1819,25 +1819,25 @@
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK10" t="n">
         <v>14.5</v>
@@ -1849,10 +1849,10 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.29</v>
@@ -1921,22 +1921,22 @@
         <v>1.68</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
         <v>2.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
         <v>16</v>
@@ -1948,22 +1948,22 @@
         <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
         <v>25</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
         <v>13.5</v>
@@ -1978,13 +1978,13 @@
         <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
         <v>11.5</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2035,7 +2035,7 @@
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2047,7 +2047,7 @@
         <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q12" t="n">
         <v>1.53</v>
@@ -2056,19 +2056,19 @@
         <v>1.74</v>
       </c>
       <c r="S12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T12" t="n">
         <v>1.51</v>
       </c>
       <c r="U12" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
@@ -2101,7 +2101,7 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>34</v>
@@ -2122,7 +2122,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.85</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.95</v>
-      </c>
       <c r="J13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.85</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2179,55 +2179,55 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
         <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
         <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
         <v>14</v>
@@ -2242,19 +2242,19 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM13" t="n">
         <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2287,64 +2287,64 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.19</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.2</v>
-      </c>
       <c r="H14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="R14" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="S14" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V14" t="n">
         <v>1.06</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X14" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Z14" t="n">
         <v>250</v>
@@ -2353,43 +2353,43 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD14" t="n">
         <v>65</v>
       </c>
       <c r="AE14" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF14" t="n">
         <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
         <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
         <v>25</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="AO14" t="n">
         <v>120</v>
@@ -2425,40 +2425,40 @@
         <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
         <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.7</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
         <v>3</v>
@@ -2467,19 +2467,19 @@
         <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
         <v>16</v>
@@ -2494,7 +2494,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -2512,19 +2512,19 @@
         <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
@@ -2560,10 +2560,10 @@
         <v>2.44</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
         <v>2.98</v>
@@ -2581,37 +2581,37 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q16" t="n">
         <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T16" t="n">
         <v>1.58</v>
       </c>
       <c r="U16" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="V16" t="n">
         <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
         <v>18</v>
@@ -2647,22 +2647,22 @@
         <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,43 +733,43 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
         <v>40</v>
       </c>
-      <c r="AG2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AM2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -832,43 +832,43 @@
         <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
         <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W3" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
@@ -877,37 +877,37 @@
         <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
         <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I4" t="n">
         <v>5.3</v>
       </c>
-      <c r="I4" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>7.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I5" t="n">
         <v>1.55</v>
@@ -1108,19 +1108,19 @@
         <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
@@ -1132,7 +1132,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>13.5</v>
@@ -1156,16 +1156,16 @@
         <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
         <v>90</v>
@@ -1174,10 +1174,10 @@
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6">
@@ -1213,10 +1213,10 @@
         <v>1.28</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>7.2</v>
@@ -1225,13 +1225,13 @@
         <v>7.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1249,31 +1249,31 @@
         <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="n">
         <v>120</v>
       </c>
       <c r="AA6" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>16</v>
@@ -1285,7 +1285,7 @@
         <v>180</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1294,10 +1294,10 @@
         <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK6" t="n">
         <v>12</v>
@@ -1309,10 +1309,10 @@
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="H7" t="n">
         <v>1.18</v>
@@ -1354,10 +1354,10 @@
         <v>1.21</v>
       </c>
       <c r="J7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.21</v>
@@ -1366,58 +1366,58 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q7" t="n">
         <v>1.35</v>
       </c>
       <c r="R7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T7" t="n">
         <v>2</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.72</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="W7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G8" t="n">
         <v>2.34</v>
@@ -1486,16 +1486,16 @@
         <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1504,19 +1504,19 @@
         <v>3.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
         <v>1.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
         <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
         <v>1.73</v>
@@ -1525,7 +1525,7 @@
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
         <v>1.75</v>
@@ -1537,10 +1537,10 @@
         <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AB8" t="n">
         <v>11</v>
@@ -1564,25 +1564,25 @@
         <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1618,16 +1618,16 @@
         <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.38</v>
@@ -1639,7 +1639,7 @@
         <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
         <v>2.16</v>
@@ -1651,16 +1651,16 @@
         <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W9" t="n">
         <v>1.39</v>
@@ -1681,10 +1681,10 @@
         <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -1705,7 +1705,7 @@
         <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
         <v>38</v>
@@ -1717,7 +1717,7 @@
         <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10">
@@ -1753,16 +1753,16 @@
         <v>1.49</v>
       </c>
       <c r="H10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K10" t="n">
         <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1774,13 +1774,13 @@
         <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
         <v>1.49</v>
@@ -1792,25 +1792,25 @@
         <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
         <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
         <v>70</v>
       </c>
       <c r="AA10" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AB10" t="n">
         <v>8.800000000000001</v>
@@ -1819,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
         <v>110</v>
@@ -1834,7 +1834,7 @@
         <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="n">
         <v>12.5</v>
@@ -1852,7 +1852,7 @@
         <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
         <v>3.1</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
@@ -1906,7 +1906,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
@@ -1918,22 +1918,22 @@
         <v>1.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U11" t="n">
         <v>2.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X11" t="n">
         <v>24</v>
@@ -1951,19 +1951,19 @@
         <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>13.5</v>
@@ -1978,13 +1978,13 @@
         <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
         <v>46</v>
       </c>
       <c r="AN11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO11" t="n">
         <v>11.5</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2038,91 +2038,91 @@
         <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R12" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="S12" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="T12" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="U12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
         <v>16</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI12" t="n">
         <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.8</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2188,31 +2188,31 @@
         <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
         <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
         <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
         <v>70</v>
@@ -2221,16 +2221,16 @@
         <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
@@ -2248,13 +2248,13 @@
         <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2293,16 +2293,16 @@
         <v>1.19</v>
       </c>
       <c r="H14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I14" t="n">
         <v>17</v>
       </c>
-      <c r="I14" t="n">
-        <v>17.5</v>
-      </c>
       <c r="J14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.14</v>
@@ -2311,28 +2311,28 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.06</v>
       </c>
       <c r="P14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.21</v>
       </c>
       <c r="R14" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="S14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
         <v>1.06</v>
@@ -2350,7 +2350,7 @@
         <v>250</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AB14" t="n">
         <v>25</v>
@@ -2365,10 +2365,10 @@
         <v>230</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
         <v>32</v>
@@ -2380,16 +2380,16 @@
         <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
         <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AO14" t="n">
         <v>120</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.15</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.25</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I15" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.38</v>
@@ -2446,61 +2446,61 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.67</v>
       </c>
-      <c r="U15" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.69</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
         <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -2509,10 +2509,10 @@
         <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
@@ -2521,13 +2521,13 @@
         <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -2557,79 +2557,79 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="I16" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="J16" t="n">
         <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q16" t="n">
         <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S16" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T16" t="n">
         <v>1.58</v>
       </c>
       <c r="U16" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
         <v>27</v>
@@ -2647,19 +2647,19 @@
         <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Araz Nakhchivan PFK</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kapaz Ganja</t>
+          <t>Imisli FK</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>2.08</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="R2" t="n">
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>1.81</v>
       </c>
       <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>25</v>
-      </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM2" t="n">
         <v>140</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>150</v>
-      </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Imisli FK</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN3" t="n">
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>7.4</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>7.6</v>
       </c>
       <c r="H4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.8</v>
       </c>
-      <c r="I4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.72</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.58</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>5.5</v>
+        <v>2.98</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>2.92</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>1.15</v>
       </c>
       <c r="X4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="Y4" t="n">
-        <v>17</v>
-      </c>
       <c r="Z4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="n">
         <v>34</v>
       </c>
-      <c r="AA4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM4" t="n">
         <v>120</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="AO4" t="n">
-        <v>170</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="G5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
         <v>7.4</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.7</v>
-      </c>
       <c r="K5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W5" t="n">
         <v>4.8</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.15</v>
-      </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>55</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.800000000000001</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>590</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>10</v>
       </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>210</v>
-      </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>150</v>
+        <v>3.45</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.2</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.27</v>
+        <v>16.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.28</v>
+        <v>19.5</v>
       </c>
       <c r="H6" t="n">
-        <v>12.5</v>
+        <v>1.17</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>1.21</v>
       </c>
       <c r="J6" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="T6" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>5.8</v>
       </c>
       <c r="W6" t="n">
-        <v>4.6</v>
+        <v>1.05</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>500</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AD6" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>190</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>2.18</v>
       </c>
       <c r="G7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="X7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN7" t="n">
         <v>19.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AO7" t="n">
         <v>1000</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.22</v>
+        <v>3.55</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
         <v>15</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
         <v>14</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL8" t="n">
         <v>42</v>
       </c>
-      <c r="AA8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AM8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO8" t="n">
         <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>3.55</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>2.28</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
         <v>2.3</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.16</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.77</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.39</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK9" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>36</v>
-      </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>36</v>
+        <v>6.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.48</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3</v>
-      </c>
       <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB10" t="n">
         <v>19</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AC10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>26</v>
       </c>
-      <c r="Z10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>100</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.8</v>
+        <v>16.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>150</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.42</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="X11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y11" t="n">
         <v>24</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
         <v>16</v>
       </c>
-      <c r="Z11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
         <v>13</v>
       </c>
-      <c r="AH11" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>26</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>46</v>
-      </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AN11" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2023,106 +2023,106 @@
         <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.22</v>
+        <v>2.72</v>
       </c>
       <c r="T12" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W12" t="n">
         <v>1.92</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>32</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>1.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>1.19</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>16.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>10.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>5.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.56</v>
+        <v>2.96</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>95</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>120</v>
       </c>
       <c r="Z13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
         <v>29</v>
       </c>
-      <c r="AA13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>19</v>
-      </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.5</v>
+        <v>2.16</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.18</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>1.19</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
-        <v>16.5</v>
+        <v>2.46</v>
       </c>
       <c r="I14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
         <v>17</v>
       </c>
-      <c r="J14" t="n">
-        <v>10</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>250</v>
-      </c>
       <c r="AA14" t="n">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="n">
         <v>25</v>
       </c>
-      <c r="AC14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AO14" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,261 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="H15" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="I15" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>2.44</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="W15" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD15" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN15" t="n">
         <v>15.5</v>
       </c>
-      <c r="AI15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>23</v>
-      </c>
       <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Jorge Wilstermann</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>CD Gualberto Villarroel</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X16" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>990</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>1.53</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>1.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>2.84</v>
       </c>
       <c r="N2" t="n">
-        <v>3.15</v>
+        <v>1.08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>11.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.28</v>
+        <v>65</v>
       </c>
       <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>370</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.29</v>
       </c>
-      <c r="S2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.81</v>
-      </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>1.58</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>48</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>620</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>4.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>1.36</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>1.38</v>
       </c>
       <c r="L3" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2.82</v>
+        <v>1.03</v>
       </c>
       <c r="O3" t="n">
-        <v>1.51</v>
+        <v>23</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.62</v>
+        <v>120</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>5.3</v>
+        <v>100</v>
       </c>
       <c r="T3" t="n">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="W3" t="n">
-        <v>2.04</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>9.6</v>
+        <v>1.48</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>850</v>
       </c>
       <c r="Z3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>850</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.4</v>
+        <v>260</v>
       </c>
       <c r="G4" t="n">
-        <v>7.6</v>
+        <v>440</v>
       </c>
       <c r="H4" t="n">
-        <v>1.51</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>12.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>1.56</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>2.68</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>1.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>12</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98</v>
+        <v>55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>2.92</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>1.57</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.800000000000001</v>
+        <v>960</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,82 +1072,82 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.25</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="K5" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="X5" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA5" t="n">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="n">
         <v>9</v>
@@ -1156,13 +1156,13 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AK5" t="n">
         <v>12</v>
@@ -1171,13 +1171,13 @@
         <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1210,13 @@
         <v>16.5</v>
       </c>
       <c r="G6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
         <v>1.17</v>
       </c>
       <c r="I6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J6" t="n">
         <v>9</v>
@@ -1234,43 +1234,43 @@
         <v>8.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="W6" t="n">
         <v>1.05</v>
       </c>
       <c r="X6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1291,7 +1291,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>260</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>3.7</v>
@@ -1369,13 +1369,13 @@
         <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
         <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1384,28 +1384,28 @@
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
         <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
         <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
         <v>10.5</v>
@@ -1414,25 +1414,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>130</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
@@ -1444,10 +1444,10 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G8" t="n">
         <v>3.55</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.6</v>
       </c>
       <c r="H8" t="n">
         <v>2.24</v>
@@ -1489,10 +1489,10 @@
         <v>2.26</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1501,55 +1501,55 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V8" t="n">
         <v>1.79</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
         <v>22</v>
@@ -1561,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
@@ -1570,19 +1570,19 @@
         <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
         <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.35</v>
@@ -1636,7 +1636,7 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -1645,10 +1645,10 @@
         <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R9" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>2.9</v>
@@ -1657,10 +1657,10 @@
         <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
         <v>3</v>
@@ -1669,13 +1669,13 @@
         <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB9" t="n">
         <v>9</v>
@@ -1684,16 +1684,16 @@
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
         <v>2.38</v>
@@ -1759,10 +1759,10 @@
         <v>2.4</v>
       </c>
       <c r="J10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1777,13 +1777,13 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S10" t="n">
         <v>2.38</v>
@@ -1792,13 +1792,13 @@
         <v>1.51</v>
       </c>
       <c r="U10" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V10" t="n">
         <v>1.71</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X10" t="n">
         <v>24</v>
@@ -1810,7 +1810,7 @@
         <v>18.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
         <v>19</v>
@@ -1840,7 +1840,7 @@
         <v>46</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>30</v>
@@ -1888,13 +1888,13 @@
         <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
         <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>4.2</v>
@@ -1912,25 +1912,25 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
         <v>1.93</v>
@@ -1954,7 +1954,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
         <v>34</v>
@@ -1966,7 +1966,7 @@
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI11" t="n">
         <v>34</v>
@@ -1975,7 +1975,7 @@
         <v>26</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>23</v>
@@ -1984,10 +1984,10 @@
         <v>42</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.06</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.08</v>
-      </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
@@ -2035,46 +2035,46 @@
         <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
         <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
         <v>19.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
         <v>30</v>
@@ -2086,7 +2086,7 @@
         <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>15.5</v>
@@ -2107,22 +2107,22 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
         <v>10.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.18</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.19</v>
-      </c>
       <c r="H13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P13" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="R13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="T13" t="n">
         <v>1.64</v>
@@ -2200,16 +2200,16 @@
         <v>2.48</v>
       </c>
       <c r="V13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="X13" t="n">
         <v>95</v>
       </c>
       <c r="Y13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Z13" t="n">
         <v>250</v>
@@ -2218,46 +2218,46 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD13" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
         <v>32</v>
       </c>
       <c r="AI13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>12.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -2305,31 +2305,31 @@
         <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
         <v>2.36</v>
@@ -2383,7 +2383,7 @@
         <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
         <v>70</v>
@@ -2392,7 +2392,7 @@
         <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="I15" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="J15" t="n">
         <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -2449,85 +2449,85 @@
         <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="Q15" t="n">
         <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T15" t="n">
         <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V15" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Imisli FK</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>1.11</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>140</v>
       </c>
       <c r="I2" t="n">
-        <v>990</v>
+        <v>150</v>
       </c>
       <c r="J2" t="n">
-        <v>1.53</v>
+        <v>10.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.55</v>
+        <v>11.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.01</v>
       </c>
-      <c r="Q2" t="n">
-        <v>65</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>370</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.08</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>1.58</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,31 +745,31 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>620</v>
+        <v>2.72</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>690</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,94 +788,94 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>14.5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>960</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>1.17</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>1.19</v>
       </c>
       <c r="J3" t="n">
-        <v>1.36</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>1.38</v>
+        <v>12.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.03</v>
+        <v>8.6</v>
       </c>
       <c r="O3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
         <v>23</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>120</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S3" t="n">
-        <v>100</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>850</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>850</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
@@ -907,13 +907,13 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>260</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>440</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.56</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>2.68</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.08</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>12</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>55</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>11</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>960</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.24</v>
+        <v>3.65</v>
       </c>
       <c r="G5" t="n">
-        <v>1.25</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG5" t="n">
         <v>14.5</v>
       </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AH5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL5" t="n">
         <v>44</v>
       </c>
-      <c r="Y5" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>640</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>30</v>
-      </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.3</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>16.5</v>
+        <v>1.47</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
-        <v>1.17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>3.6</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.33</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>1.87</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>6</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.05</v>
+        <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>15</v>
       </c>
-      <c r="Z6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.9</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>2.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.74</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AN7" t="n">
         <v>16</v>
       </c>
-      <c r="AE7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>19</v>
-      </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.26</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>2.16</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="U8" t="n">
-        <v>2.34</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.79</v>
+        <v>1.36</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
         <v>40</v>
       </c>
-      <c r="AM8" t="n">
-        <v>75</v>
-      </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>7.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="9">
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.48</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>1.49</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>7.8</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.35</v>
@@ -1636,88 +1636,88 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>24</v>
       </c>
-      <c r="AI9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>1.17</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>1.18</v>
       </c>
       <c r="H10" t="n">
-        <v>2.38</v>
+        <v>17.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>10.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>6.2</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="P10" t="n">
-        <v>2.78</v>
+        <v>5.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.71</v>
+        <v>2.92</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="V10" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.5</v>
+        <v>230</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>46</v>
-      </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>16.5</v>
+        <v>2.18</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.65</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>2.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>2.92</v>
+        <v>2.34</v>
       </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="W11" t="n">
-        <v>1.93</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
         <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO11" t="n">
         <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,531 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2.54</v>
       </c>
       <c r="H12" t="n">
-        <v>3.95</v>
+        <v>2.84</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.58</v>
       </c>
-      <c r="S12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.62</v>
-      </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="H13" t="n">
-        <v>18</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X13" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Union St Gilloise</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Marseille</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
         <v>16</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Jorge Wilstermann</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CD Gualberto Villarroel</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X15" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.1</v>
+        <v>55</v>
       </c>
       <c r="G2" t="n">
-        <v>1.11</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>140</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>150</v>
+        <v>1.02</v>
       </c>
       <c r="J2" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>11.5</v>
+        <v>110</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,29 +697,29 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>2.6</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>1.61</v>
+        <v>4.8</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V2" t="n">
+        <v>50</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
       </c>
-      <c r="W2" t="n">
-        <v>10</v>
-      </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
@@ -727,7 +727,7 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -748,28 +748,28 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>690</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>350</v>
+        <v>990</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -793,68 +793,68 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14.5</v>
+        <v>5.6</v>
       </c>
       <c r="G3" t="n">
-        <v>960</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S3" t="n">
+        <v>22</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.17</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.05</v>
-      </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
@@ -862,19 +862,19 @@
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>1.48</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>850</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,13 +907,13 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>3.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>2.08</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>2.12</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.32</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
         <v>27</v>
       </c>
-      <c r="AA4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>24</v>
-      </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.5</v>
+        <v>150</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.65</v>
+        <v>1.02</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>1.03</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>95</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
+        <v>42</v>
+      </c>
+      <c r="K5" t="n">
+        <v>55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.6</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.69</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>1.35</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>38</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>3.05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>6.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>8.199999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="I6" t="n">
-        <v>8.4</v>
+        <v>1.08</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>16.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>12</v>
       </c>
       <c r="W6" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN6" t="n">
         <v>120</v>
       </c>
-      <c r="AF6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AO6" t="n">
-        <v>140</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>2.34</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.36</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>1.59</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>2.66</v>
       </c>
       <c r="P7" t="n">
-        <v>2.82</v>
+        <v>1.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="S7" t="n">
-        <v>2.22</v>
+        <v>30</v>
       </c>
       <c r="T7" t="n">
-        <v>1.49</v>
+        <v>4.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.96</v>
+        <v>1.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>3.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>7.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>32</v>
       </c>
-      <c r="AB7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14</v>
-      </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>2.28</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.03</v>
       </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.82</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.16</v>
+        <v>30</v>
       </c>
       <c r="T8" t="n">
-        <v>1.48</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>3.15</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>5.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>5.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="AF8" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
-        <v>13.5</v>
+        <v>160</v>
       </c>
       <c r="AI8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.8</v>
+        <v>890</v>
       </c>
       <c r="AO8" t="n">
-        <v>19.5</v>
+        <v>890</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>1.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>1.11</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>70</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>6</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>1.19</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.91</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH9" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AI9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM9" t="n">
         <v>70</v>
       </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>65</v>
-      </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>2.42</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.17</v>
+        <v>85</v>
       </c>
       <c r="G10" t="n">
-        <v>1.18</v>
+        <v>180</v>
       </c>
       <c r="H10" t="n">
-        <v>17.5</v>
+        <v>1.06</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>1.07</v>
       </c>
       <c r="J10" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L10" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>21</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.01</v>
       </c>
-      <c r="N10" t="n">
-        <v>17</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.6</v>
-      </c>
       <c r="X10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>220</v>
+        <v>2.8</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>5.9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.18</v>
+        <v>180</v>
       </c>
       <c r="AO10" t="n">
-        <v>130</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,261 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="H11" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="V11" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB11" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD11" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO11" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Jorge Wilstermann</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CD Gualberto Villarroel</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X12" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,141 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Jorge Wilstermann</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CD Gualberto Villarroel</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
